--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/44_Karaman_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/44_Karaman_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1D570D-1B27-40EC-A4D3-A173DE575FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EC435F-A02F-44B5-BBD7-09F27A7A9866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="665" xr2:uid="{43154576-DA74-4111-826E-F4237C7B251E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{71F1CE44-45BC-46B2-B9BE-85A4A489A9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -984,14 +984,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0F5A8CAA-F441-4DF4-A00F-3FAFAF179690}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CFF85236-718E-4E96-B984-1E6939E7D191}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{374B7799-EF63-4ECC-8B76-94F90931B1CC}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{DF3BD28C-9068-455F-8FEA-DC24F77B3CBB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{78240864-8635-41D8-B373-A0095567DAE8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C005D462-41F9-4DE5-B39D-5F6BA0DC31F6}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{B67A01C2-B267-4573-BC3A-EA5D48B329FF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B70AF1F2-3368-4FF9-AB3A-7910B7D17EE0}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B00B4A8D-4930-48AF-874C-9347D1EF762B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{29FAFB34-4597-4156-B302-1BCD47263DA4}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{2C0A408B-1AF1-43B1-BAC4-92C77B29C36A}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{B0000890-7023-4BF0-B443-25D765F2126A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F8C94259-6E90-4A5E-A98C-CD503A5DC847}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C8B36661-1E15-493C-BF14-548CB13216BB}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{FA0728BC-EB5C-40BA-A1AE-D34D86192490}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4870E060-28A9-4C61-A321-E40412FAA3EA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A9FCD1-FC35-4EAA-97AD-AD61E0CB4E71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A0D54A-1D17-470B-992E-D854D24B3D9A}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2629,17 +2629,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53A75B1B-2313-4A08-874C-A4AF218A751D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0ED7CCE4-825F-493B-B6EA-677D3A309914}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57E620A8-0312-4336-8988-E28B76B3E38B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2057EE9-ED51-48E8-A59E-2FD84A3FCE4A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC2969E2-7B3E-4D9D-A3EE-8CE0D1B5E920}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05BEFA32-5CFE-4F07-8716-203734D13453}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB106EAE-10C3-48DE-A114-AABFFBF9203C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66861255-9D3E-46D6-8108-B7B6C1DDB249}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{317D033B-04B5-4048-8EF5-DA7D7F5AFCEB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EDE50423-409C-4891-BB40-F55BA4742605}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15A886F9-CD06-4969-A00A-5A37AFB32B87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92408C33-0944-4711-A046-F4C6A0F44172}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70A4DEE5-665A-46E9-A6BF-40A7297FE707}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FECBB06D-2406-4A5E-9620-378D0377CB45}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A3666DC2-DEFB-4591-A94E-ADEBA40AEFE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16DCC824-1D8C-4F76-9824-8C5E995103EC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66DCE7D0-C193-4DE8-8159-7432F1C91B55}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE0E9404-B39B-4BD9-A19E-099DA71A123F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{917F2EF9-262F-42F8-AD0F-855BCF7D4B41}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ECB51B3E-8441-4E9E-9962-03881F9C1FF3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{84D2648C-D558-477D-83E6-E31D5044AF26}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5288B2C4-CC4F-4CDC-8107-C03A7851BD27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2652,7 +2652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1129A4-0655-4429-A743-AF4446D2F856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69644EB9-6967-4EF0-A23E-3E999C09360F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3905,17 +3905,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF46CC8D-20BA-4399-9DF4-2A8A49B7044D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B7365E7-ED69-4727-A718-86DA0B736763}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39D8E9A7-610E-405D-948B-5043ACF51EAB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BE85D78-5C2A-46C7-A237-ED972AB01856}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83943F90-2A01-4E4E-8BE0-F582882E0BD8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4F38499-1BE3-477C-A15F-B7B4BA90A930}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41F50B4F-902E-44D3-B116-405B9B0D3513}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7728B8A3-4039-4C74-969F-1E8F08AA0313}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EB935885-140D-405F-9E52-999DC694EEE3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CF23B8A1-8C16-45DA-A864-AE073E42261E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84B8994F-1B8B-49A8-B586-3AA522D3A357}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB9463A7-426E-4371-8F02-530F9F1BC06B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39D534C9-160A-4806-B864-6866808CACE9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{45516F08-131C-43A6-85AD-2F3601E82809}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A559E676-AA7C-4C2D-B38D-FF2A8C0D4DBE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD0532A4-5CFC-4673-9894-952BE7C01F21}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1F12654-AD7C-4CA5-9E43-396D0A683F7A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDD2AFB3-237E-44C6-A6A5-386F78D4A14F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FDF0C80-A378-413D-9078-86F16DC4505B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{499DA5A5-8542-4F91-9D86-45CFF7B91F13}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A36F6955-332A-4F63-95C3-726E30075E4D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78206514-C98E-40ED-ABFD-19CC579B6C8F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3928,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9328BC05-827C-449C-AC7B-2649F8A85E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD7C118-6640-4A68-998B-9201F2D2DECF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5169,17 +5169,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{689FD0DF-082D-4C4F-BA8A-663A2DD747EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C75BBA5D-9D78-4593-8F2D-BFCFE819BD06}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21D87436-C210-4E42-885E-03958DE53F2D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{928BEDA3-B2D9-48A5-BD03-1DB4EA394E87}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0EA246AF-BB6A-4024-BCCC-4F1FFB5CB3DF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{02BC040C-138E-4182-A779-5625FC2B978B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAA84E23-9433-444E-9275-B704DCC48874}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B715163-90B8-4792-A15B-C998B3796660}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2364C175-E1F0-4AC9-8E5B-FCA44CF8B276}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6931F679-46F1-4406-9ADF-5B3AB7927438}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{625550B5-0218-488C-A9B7-562A6C900CE9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC5CF17C-76CB-4EB7-B640-94D383163CE5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4410925-E3FF-451F-BDF4-3E935364C832}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ED4C512E-403C-425B-8717-CC76B7CFA7AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4695967-7628-4E6A-93AD-4A4D7B260D33}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0ED000A-5B92-4DF8-82B0-A8B77EED6A4D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F873A413-7CE9-488E-A4F1-308D519CFC59}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60F59380-6C35-40EF-BF41-D73FC7DA9E52}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{190910D2-6FA1-4743-B0B0-14F8CBE62BBB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7C650C5D-57FA-40C8-97A3-0CCB4CBAA59E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6A88A45B-554F-425C-8F31-43A5B7370ABF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6923381C-532B-4978-8EEF-A18C76D03D9F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5192,7 +5192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DC31F1-06CD-4675-BB4D-47BB8FBD0CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7D4310-4143-453A-80BC-AE992904C4B2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6425,17 +6425,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63B08AC1-61BF-42A8-8C31-3D4202508913}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9540096-A9C4-4B47-ADE8-5FC3928E8027}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2DE2DD26-261E-4A76-8E2B-F66EE4E9C6ED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA2D158E-7747-495A-A653-D2C79D4CC6B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DEA4529F-9134-4F13-9376-C7BD0F0C1769}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6056B405-F357-4A8B-9564-78EB84F53BA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BE2C2A6-D117-411A-9CFA-96F0F6EF9AE8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B78DDA70-D3E6-4625-8780-E4F56B2E8E2F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{42D80AB3-8A61-4C72-AA94-632267C57430}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3D96B2DE-28C8-4223-8E38-2B20D22A2843}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FFAE22C-E99E-4A41-B2A9-F1127544B70C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{052EF6AE-0ED8-4314-8AA1-4DABCCF2ED6E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3ED0F483-7C4F-4218-8FDE-7893DF74FDE2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF723D5A-1C3E-411D-9251-7C9B0D5F24C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{577917E6-C0D8-4347-B0AC-1F773F4F4C90}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7B33951-692F-4894-A23C-C9673BDB3EE5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{703216B6-4304-4D26-9A5F-BC804C2EECC2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CD3756F-EBBD-4D4C-87CF-E5E764D60018}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{803685EF-3554-4952-A526-C3413B28B3DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8E729A65-17E6-482F-95FF-9FBE022C6AAC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E2CA3F82-5C4E-49B0-8538-6F02CC9177A0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74118110-312E-45DE-8DC1-44B924312FD8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6448,7 +6448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D95DE-4F63-4C20-AEF6-FE6818AE2576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFF4DD2-FDE0-4019-8236-DC3FAF349A16}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7707,17 +7707,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7493FD8-059C-4E05-934F-172745D6FDCA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{643DAA72-FEF1-4CE5-B69C-7A7F1E39363C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2FE297B-425C-43DA-8BA8-571BF7DA33A2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A77F132A-2FA9-40CC-85F7-EDC459E74286}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{40BE2179-63A7-425E-A56A-D96C983C75FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7EEF81E2-D1B7-4C18-B587-A2B3425EBE90}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56759B82-6C43-4896-A562-864D5422A982}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF18808E-DD8A-496C-84C2-D3A12221B61C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B639CA67-5351-44EA-B817-BC3BD0536447}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{056263E9-6376-4B30-B2D1-B626A6EA4A5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FBAC6EC-01A9-4504-BC0D-DD3E2DA55052}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC4457B6-6E83-4560-A64E-A0DDAA73296A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38F48293-EAE5-41AA-A166-14190EE8C886}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{806B003B-48D0-46F3-8D36-A44C65399ACB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E92550B8-6AAD-4DCE-8536-BD19734F4EFC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A62C00C8-DEBA-45A8-9AE0-7FAD0EA5D13D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8916205C-56A9-4540-B321-2E5F1D5C1359}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65A9BB78-89B7-441D-A71D-1BB2690FE53B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAEC5ED0-4FBF-4AE9-9712-39464DD700F5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A49C8AC6-6E15-4339-BBA5-1566A8A88AB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{539932F1-E3EC-41AB-AB1B-9CEC9AE40408}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA42A5B4-55FE-49EE-B99E-807FBC994C0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7730,7 +7730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED61E178-1A1E-41B8-9C89-0D70DFE63BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A7BE66-4920-4F3C-865D-1EC810D2B141}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8985,17 +8985,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A99FF85A-E84A-433C-BE5E-C16007BC09B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5164EDA0-61CF-4729-8D89-0D236D2E6F76}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C49A796-3BCA-4648-B670-C45A0430B228}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88B2EBB6-F2AE-408C-9E35-38FCF17F62CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1357879-E923-4CEA-BDD4-32B48CE43A52}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{345D7F01-714C-4FB0-898C-7A5AD521DD35}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9544B1C-8245-4D60-B39C-44CCE64D0CFD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE7E88D3-1DE1-4A3F-A460-3F84C3B26F63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9444C79F-EB79-42D6-B096-8DC715EA5F6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4D7D2423-AEE5-4B3F-A29E-A8A789B1AE6E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D87167C0-4AB1-4F29-B349-A6DB6A9DCF74}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA33AEE8-F529-486D-B1C8-0D72D25B68A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B14D160B-B60A-4E24-8C36-765B19595013}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C645D5A8-12F1-4CC1-90AD-CB14E65A79EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC682678-423C-4E0A-85B5-BA7D16C7D751}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26C5AC17-0EDE-4892-9209-C01804144715}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5BE1396-D7AB-4380-918B-780509CF0F8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF1E7343-B3AE-447A-90CD-2A4A61066C4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC99088A-2224-4028-AA85-EE97743B76F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EC9D9A01-13B3-4037-9E53-C5A8C657CDA5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B8F6EC2F-7C7E-4FDF-9360-9E03FB12929F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DFFB6C5-F394-4F09-8845-8CC79A4D712B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9008,7 +9008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58043A3-F411-4E93-8893-E877AFD07DEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBD5D94-97A1-413B-A97F-38A9BCFDD28E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10263,17 +10263,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20E82672-32F4-40BF-84C8-6F92E2EAAFB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24726E99-03F3-48E3-BA70-4129732C6670}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DBC4F20F-637E-4EE6-B036-22837DD9871A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C75A9B7-BA08-4BF0-ADC7-4838C83BF30E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C93923C5-0F56-450B-894E-70C6EBE96D05}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6ED703FD-2BC6-412D-A19D-607C6FCEF6B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B94B0E4E-DECC-4F1D-83B8-3657F98B0C44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{933AA7EC-9EA5-44C9-95AE-4AC651E5EBE5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{392A7005-5CCD-4412-A0DD-0CECE8B4CE9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{646AF992-734A-4600-B16D-2BB3CEEEEB1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF6BB5DE-B1C6-4586-B2E1-B43748052FFE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56699621-1328-4427-B625-BB941DAFF12F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7ECA8038-08D5-41B1-AC8D-5E87981DC556}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9388FC95-D67A-4190-B655-9851E3962141}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E41AB54A-A21E-4BEF-9C9D-73DAA8676B08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9FA5593-DAAD-4286-92B0-4AB2365B5DE7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1948B3C-C1CF-48A0-AE28-EBD81F3881A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE4A91DA-288A-4B19-AAFA-919FF0265310}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F3E6CBD-1564-425A-B451-CD2BEBFC8242}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E7D56E30-F627-4E9B-92A1-BD35D69F7BDB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{515B8C37-AB79-4D2A-A5A5-E3E7909FB477}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67E9F794-DF82-4EFE-A212-BFA8DBFB9A14}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10286,7 +10286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C783238D-DE52-4708-AA00-4953A7264600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BD1D2D-514A-4711-9B2B-3623BFDA4364}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11541,17 +11541,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55C738F0-D8B7-4FFD-8748-570706FD8A93}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F905E36-951A-418C-9844-7AAB5F50E129}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FA8362FF-9E06-4D39-9214-CC2AF6262655}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5313CF38-98DF-4A83-8374-D81299D0B5FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1EB519F9-7442-4EB7-8E90-63CCAC58F238}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5E5E7FC5-8137-4D06-8ED0-A1E643C980F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D35E74D-0722-4502-9D3C-9D3CCB19B839}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{401FFD08-317C-4D6D-8640-71D27F9FCE17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C3537A48-D44F-4CC0-AE64-9A8E06C20BB8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{306F66E1-5937-4EEA-AE9F-F29A7BC6BCFE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42FEA19B-E544-4D8E-BE80-5640AC704BF4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9CFE95B-39A1-497A-8D08-BA71CA2F959D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF391EBB-6ECD-4073-9D6C-7B6596A77C97}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5B6608F0-3495-4193-86D3-44E344ABCB9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{872F65AA-7920-4DF0-9ECF-001CF3A4AE85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1B032D0-6697-4CC6-9057-A664007517AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE83B3CD-712C-43DA-B88E-0690C1DC7999}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70DE3300-87D2-4865-8E97-EDAD13A7A60E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B171559-54F9-4BB8-A45C-05789CF21713}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A57AB562-8332-46E3-84A6-5DF7CBC434C8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5EF39520-689B-4372-9C2B-5DC1AD099BCB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C38035E-6C47-48B4-9400-FD08E94A915A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11564,7 +11564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D67F183-9F8B-44B4-9637-F55769498828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3931F713-4D16-43A0-B4A3-195ACB15A3FB}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12819,17 +12819,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1EA9B95-7A09-4D32-AFDF-2AF9C02BD034}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C3774BA-B7C1-477B-B0A4-598021C37128}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{938370E1-51A6-4C7D-B95F-6EA7D7194FD5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A3969224-913A-4EA9-99AA-4CC9399771D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0652C829-FEEC-4ACA-BDB8-5392EA69DC1B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E492C200-018E-49B4-BAD0-FA2B12CCF8DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D16323E-5EF8-455B-92DB-D49438959234}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A45D838D-A781-466E-973E-B89C31870169}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{783D3B4E-EBE3-4380-AA96-F0663804559C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{01EC86DD-C6F5-49BB-81A2-B4B5D1CDE390}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45E41442-B115-40F1-A4E8-DABD31FCB2B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A936F59C-4B1B-4A1B-8BC3-A0DE9267C005}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CF65D6C-189C-4C1E-A360-6A421F8FE5EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B605D57E-1FB7-4ECC-9274-8945A2984DBE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{870FACB0-CC3E-4FDB-98CB-584817B503F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B4C8EC3-42BC-4010-959F-BB52AC0879A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F0955C8-8ABD-4836-A9D3-51D1FACEE119}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7D2D8A9-1AA9-47EB-A0D2-BE9AC810A088}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C6C598C-9720-451A-9CD1-4E77DDCD35A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4225853F-0A58-4D59-A428-DC2C2F250556}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ADE2DBF2-DE81-4325-8F68-813670870C44}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{548C76D9-EDF4-4AA4-A7B0-697FFF444D9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12842,7 +12842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E96C6C8-C64B-4BB3-9F93-CFC3D0A1ABBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992011F4-A74F-43E2-9BCE-6EA21281CE0A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14097,17 +14097,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5660AA2-0C41-4070-B60E-C480D7FE93A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27B99846-FAD8-4428-9080-540DE36535BD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B0A5CEE-700F-48CE-8B35-D71F00AE23B0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13807DD9-C997-4D90-BC48-50C7B68834C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE979A18-E187-4EF3-A6C7-868EBC7BEA72}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9E06DC7-28C8-474C-AF2F-B6F3A0F26F37}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22917C17-24B3-4DC2-AB0F-0FA44ABF6A8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B17A6BAA-0459-4A1A-9597-3BD9352D898E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B9CE332E-E1EF-447B-BF1D-847704326B94}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{93AB3D75-B0E5-4753-8282-DE4488EA0634}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FDAA224-336C-45F7-981F-9CF7739F795C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{510C491C-9E73-4EFC-AB73-D7498817C0C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{830B2168-5BAD-485F-A537-98CF34570FE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0DDDBA33-C094-418B-9DA7-0D50FE36DB32}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B2BB8657-5BF0-4510-879C-E8A79DC1ED6E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E082CFD5-7AE5-41B2-B943-0BEA2CB5E35E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A3A3DF3-E35F-4D41-B8EA-3C0715BEAB1C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B438D8F-923D-4871-93D6-CA2708CE6BFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF29E218-FE64-44E0-9B78-D916B7C48B5E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{221F24AB-FED0-4CE2-A982-BBB8825A16E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E2A14B0C-C5B7-4BB5-9FD5-F522155DE012}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE8077CD-EED6-4BAD-AA10-E18E24DE19B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14120,7 +14120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA16AEE-F839-4443-85DC-79B89FEABE42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEEF9CE-59FD-4D42-917A-BCE8CF278BE7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15375,17 +15375,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3A47F2A-D108-4BB2-8125-4495286CA7B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B504992-E577-429E-92A1-A6C204DE41D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A052E6F6-347C-46E0-978E-8F99DB70313E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5418C4DF-47B9-42A8-ABA2-D5C68419794F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5E9F4F6-D6CD-4C1D-BE99-4878A9058D7B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5281CCC-C300-4222-86DD-A2553EEF67AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63E12BCE-4FC7-4249-BB87-C5FA136250E7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C92C3F8-EAA4-4496-8BEC-BC211854DF09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5BB7A087-BF5B-481B-BBE1-15371C691B62}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2A74701B-A161-4D9F-B0F8-4BBA826C074F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7200B129-BE8B-4C29-AE59-E4FBA9F82268}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6C84DF9-2D44-45AD-8EEC-377C576A5DFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49AF8806-DDAF-4137-832B-6A751E1DA96A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{466D9DA3-2B82-4841-A780-BD277F87EE62}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71C4F1C2-9F22-4911-A5B0-8B5CA6CCDE4A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{705376E7-D508-431F-87B8-7C394C552393}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{344998E9-AD16-4406-A02E-C772589C684A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F10C6C76-9781-48E5-9AF1-1246A73CAD6B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3361831E-73E0-4D27-A633-70BC86B175B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BCA940EC-F974-49B5-9367-BB9976CC31EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0AA5A17C-B83B-4E49-82FD-7689D7E88D33}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6FD5196-A447-46F8-B3AB-1519B699279E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15398,7 +15398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E7854-8B15-44EB-BF84-66E1275D15DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCA2F6B-FD25-4B15-971C-B6DD8C93D9C2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16653,17 +16653,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E014351-F4F7-4C5D-944E-D234C4039054}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{946C2EB2-5C76-4749-8100-FAEECCB35974}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5042A9CF-5916-4965-8651-D46819CF450F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88040ECA-DEDF-49BF-AA29-7D99707602DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F0B2B73-2073-4A4D-AECC-FA1EC1390EF4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C4F9D4C-512D-4D59-BA47-06391CCD8F0C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F74549F-CF30-450F-B775-A65D8A3BE3B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{30BC2BDC-6D94-40EF-931C-171E3218AC8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7D3672C4-CD0E-47BC-B72B-502D60E45AFC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{50AF8FE1-A010-47F8-B8D8-1C1BAEC73A4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{880CA8F0-7988-49C5-94C2-109D43F2C043}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17FC1E17-6FA4-4D64-9936-E3A08B4300DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E46C58E6-54BE-4A84-A3B9-403A16FA87DB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7C9DC1FE-27B2-4BFD-9C5E-09E830487049}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3FDEDAED-6568-4611-8976-6C040C5C06F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29500629-1B92-4AC9-BE12-801369FE7500}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB4005C3-27ED-479D-AE70-82D0D486ABAD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1416FC91-62E1-4252-8083-01502641CA11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36566FBA-9BCC-412E-9CC7-89DB8337E734}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{08770BBE-F358-4B8C-AA2F-1222C7F0807B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E15F9F65-C9E0-4C6A-9BCE-55AEE25058D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EE74DE5-0B1B-4683-9E09-C1EF757FAE4C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
